--- a/Document/note.xlsx
+++ b/Document/note.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOAN_CHINH_DAI_HOC\HKIV\JAVA\do_an\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ms.Oanh\Desktop\DoAnJava\QLNhaSach\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DDF88D-B06A-4462-BC16-1095A5C02223}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{810C3C35-DAAE-4888-94EB-F75C0F97C638}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -255,12 +254,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -269,7 +268,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -335,7 +334,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8804D98-774C-44EF-BD06-216CA4FF4FCE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8804D98-774C-44EF-BD06-216CA4FF4FCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -379,7 +378,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB3D3984-FD01-4864-A7C6-F5903750DD4B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB3D3984-FD01-4864-A7C6-F5903750DD4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -423,7 +422,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32A35EF-E49C-4A1B-8DFB-B4A34CDA7747}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32A35EF-E49C-4A1B-8DFB-B4A34CDA7747}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -467,7 +466,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E99722-D424-4AF9-AE06-5ADB1319710D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E99722-D424-4AF9-AE06-5ADB1319710D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -511,7 +510,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975B28E7-CA33-46D2-8F5C-F69A6948F8FE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975B28E7-CA33-46D2-8F5C-F69A6948F8FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -555,7 +554,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF57FF6B-788C-42CA-BDFA-01A9825BD163}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF57FF6B-788C-42CA-BDFA-01A9825BD163}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -880,22 +879,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F74846-5FA9-4FB7-A873-716224A4F306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -903,7 +904,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -914,7 +915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -925,7 +926,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -939,7 +940,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -950,7 +951,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -961,7 +962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -969,17 +970,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
         <v>17</v>
       </c>
@@ -987,7 +988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
         <v>24</v>
       </c>
@@ -995,7 +996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>13</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>14</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1020,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>31</v>
       </c>
@@ -1027,47 +1028,47 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
         <v>22</v>
       </c>
@@ -1075,27 +1076,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>9</v>
       </c>
@@ -1103,47 +1104,47 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J53" t="s">
         <v>53</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J54" t="s">
         <v>43</v>
       </c>
@@ -1162,67 +1163,67 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P55" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I69" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I70" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I71" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J75" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J76" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J77" t="s">
         <v>36</v>
       </c>
@@ -1230,7 +1231,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J78" t="s">
         <v>35</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J79" t="s">
         <v>34</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J80" t="s">
         <v>37</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J81" t="s">
         <v>38</v>
       </c>
